--- a/source/waste_cate_per.xlsx
+++ b/source/waste_cate_per.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krant\Desktop\ironhack_262\final_project\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47CD8D4-7BB5-4545-B14B-0A6DBDE4AD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFE96EC-ABD8-4A6E-B09F-9F10D9D51401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="98">
   <si>
     <t>Final consumption expenditure of households by consumption purpose (COICOP 3 digit) [NAMA_10_CO3_P3__custom_10910026]</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>Data extracted on 19/04/2024 15:47:50 from [ESTAT]</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
   </si>
 </sst>
 </file>
@@ -527,10 +533,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -908,11 +914,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C42F9B-0123-4DA2-83FA-6ECCE6A85379}">
   <dimension ref="A1:AC56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -992,88 +998,88 @@
       <c r="A8" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="34" t="s">
+      <c r="E8" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="34" t="s">
+      <c r="G8" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="34" t="s">
+      <c r="I8" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="34" t="s">
+      <c r="K8" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="34" t="s">
+      <c r="M8" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="34" t="s">
+      <c r="O8" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" s="34" t="s">
+      <c r="Q8" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="T8" s="34" t="s">
+      <c r="S8" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="T8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="V8" s="34" t="s">
+      <c r="U8" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="V8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="W8" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="X8" s="34" t="s">
+      <c r="W8" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z8" s="34" t="s">
+      <c r="Y8" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AA8" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB8" s="34" t="s">
+      <c r="AA8" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AC8" s="34" t="s">
+      <c r="AC8" s="33" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1081,88 +1087,88 @@
       <c r="A9" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="33" t="s">
+      <c r="C9" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="33" t="s">
+      <c r="E9" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="33" t="s">
+      <c r="G9" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="33" t="s">
+      <c r="I9" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="33" t="s">
+      <c r="K9" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="N9" s="33" t="s">
+      <c r="M9" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="P9" s="33" t="s">
+      <c r="O9" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="R9" s="33" t="s">
+      <c r="Q9" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="T9" s="33" t="s">
+      <c r="S9" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="T9" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="V9" s="33" t="s">
+      <c r="U9" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="V9" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="W9" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="X9" s="33" t="s">
+      <c r="W9" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="X9" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z9" s="33" t="s">
+      <c r="Y9" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z9" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AA9" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB9" s="33" t="s">
+      <c r="AA9" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB9" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AC9" s="33" t="s">
+      <c r="AC9" s="34" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4639,7 +4645,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B49" s="27">
         <v>100</v>
@@ -4728,7 +4734,7 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B50" s="23" t="s">
         <v>87</v>
@@ -5479,11 +5485,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="M26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8497,7 +8503,7 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" s="18">
         <v>100</v>
@@ -9208,8 +9214,8 @@
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>77</v>
+      <c r="A49" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="B49" s="18">
         <v>100</v>
@@ -9297,8 +9303,8 @@
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>78</v>
+      <c r="A50" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>87</v>
